--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Term</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>https://lists.w3.org/Archives/Public/public-dpvcg/2023Jul/0006.html</t>
+  </si>
+  <si>
+    <t>SignificantIncident</t>
+  </si>
+  <si>
+    <t>NonSignificantIncident</t>
+  </si>
+  <si>
+    <t>NearMissIncident</t>
   </si>
   <si>
     <t>domain</t>
@@ -1060,10 +1069,21 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="K13" s="13"/>
     </row>
     <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="K14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:AD43">
@@ -1122,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Term</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>sc</t>
+  </si>
+  <si>
+    <t>NIS2 Directive</t>
   </si>
   <si>
     <t>accepted</t>
@@ -328,10 +331,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -706,18 +709,20 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="12">
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K2" s="13"/>
       <c r="L2" s="11"/>
       <c r="M2" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O2" s="13"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -736,13 +741,13 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
@@ -752,18 +757,20 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="12">
+      <c r="J3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K3" s="13"/>
       <c r="L3" s="11"/>
       <c r="M3" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O3" s="13"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -782,13 +789,13 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9" t="s">
@@ -798,18 +805,20 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="12">
+      <c r="J4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K4" s="13"/>
       <c r="L4" s="11"/>
       <c r="M4" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O4" s="13"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -828,13 +837,13 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
@@ -844,18 +853,20 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="12">
+      <c r="J5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K5" s="13"/>
       <c r="L5" s="11"/>
       <c r="M5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O5" s="13"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -874,13 +885,13 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9" t="s">
@@ -890,18 +901,20 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="12">
+      <c r="J6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O6" s="13"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -920,13 +933,13 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9" t="s">
@@ -936,18 +949,20 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="12">
+      <c r="J7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K7" s="13"/>
       <c r="L7" s="11"/>
       <c r="M7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O7" s="13"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -966,13 +981,13 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
@@ -982,18 +997,20 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="12">
+      <c r="J8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="O8" s="13"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -1012,13 +1029,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
@@ -1028,16 +1045,18 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="12">
+      <c r="J9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="12">
         <v>45431.0</v>
       </c>
-      <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1057,32 +1076,32 @@
       <c r="AD9" s="11"/>
     </row>
     <row r="10">
-      <c r="K10" s="13"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="K11" s="14"/>
     </row>
     <row r="12">
-      <c r="K12" s="13"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="K13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="K14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1142,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1181,45 +1200,45 @@
     <row r="2">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3">
       <c r="B3" s="18"/>
       <c r="C3" s="10"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4">
       <c r="C4" s="19"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5">
       <c r="C5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6">
       <c r="C6" s="19"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7">
       <c r="C7" s="19"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8">
       <c r="C8" s="19"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9">
       <c r="C9" s="19"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="20"/>
@@ -1250,13 +1269,13 @@
     </row>
     <row r="11">
       <c r="C11" s="10"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="14"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12">
       <c r="C12" s="19"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13">
       <c r="C13" s="19"/>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -90,7 +90,7 @@
     <t>Early Warning Report</t>
   </si>
   <si>
-    <t>within 24 hours of detection containing cause of the  incident and whether it was unlawful or malicious and whether there is  cross-border impact</t>
+    <t>within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
   </si>
   <si>
     <t>IncidentAssessmentReport</t>
@@ -99,7 +99,7 @@
     <t>Incident Assessment Report</t>
   </si>
   <si>
-    <t>within 72 hours of detection, which contains  updates on the earlier information as well as initial assessment of  severity and impact of the incident as well as any 'indicators of  compromise'</t>
+    <t>within 72 hours of detection, which contains updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
   </si>
   <si>
     <t>IntermediateReport</t>
@@ -108,7 +108,7 @@
     <t>Intermediate Report</t>
   </si>
   <si>
-    <t>upon request - which provides updates, if any,  to previous information</t>
+    <t>upon request - which provides updates, if any, to previous information</t>
   </si>
   <si>
     <t>ProgressReport</t>
@@ -117,7 +117,7 @@
     <t>Progress Report</t>
   </si>
   <si>
-    <t>within 1 month of detection if the  incident handling has not been completed by then, with updates to  previous information</t>
+    <t>within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
   </si>
   <si>
     <t>FinalReport</t>
@@ -126,7 +126,7 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>within 1 month of incident handling i.e.  completing the incident recovery and containing the  applied/ongoing measures, 'detailed description' - not sure what this  means, and threat type / root cause - which is covered with threat and  vulnerability concepts</t>
+    <t>within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, 'detailed description' - not sure what this means, and threat type / root cause - which is covered with threat and vulnerability concepts</t>
   </si>
   <si>
     <t>InitialFeedbackOnIncident</t>
@@ -135,7 +135,7 @@
     <t>Initial Feedback on Incident</t>
   </si>
   <si>
-    <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing  "initial feedback" and guidelines on measures that can be taken in  response to a breach</t>
+    <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing "initial feedback" and guidelines on measures that can be taken in response to a breach</t>
   </si>
   <si>
     <t>RiskMitigationAdvice</t>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Term</t>
   </si>
@@ -90,7 +90,16 @@
     <t>Early Warning Report</t>
   </si>
   <si>
-    <t>within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
+    <t>Report sent within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23 (4)(a)</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Arthit Suriyawongkul</t>
   </si>
   <si>
     <t>IncidentAssessmentReport</t>
@@ -99,7 +108,10 @@
     <t>Incident Assessment Report</t>
   </si>
   <si>
-    <t>within 72 hours of detection, which contains updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
+    <t>Report sent within 72 hours of detection containing updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23 (4)(b)</t>
   </si>
   <si>
     <t>IntermediateReport</t>
@@ -108,7 +120,10 @@
     <t>Intermediate Report</t>
   </si>
   <si>
-    <t>upon request - which provides updates, if any, to previous information</t>
+    <t>Report sent upon request which provides updates, if any, to previous information</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23 (4)(c)</t>
   </si>
   <si>
     <t>ProgressReport</t>
@@ -117,7 +132,10 @@
     <t>Progress Report</t>
   </si>
   <si>
-    <t>within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
+    <t>Report sent within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23 (4)(e)</t>
   </si>
   <si>
     <t>FinalReport</t>
@@ -126,7 +144,10 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, 'detailed description' - not sure what this means, and threat type / root cause - which is covered with threat and vulnerability concepts</t>
+    <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severityand impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23 (4)(d)</t>
   </si>
   <si>
     <t>InitialFeedbackOnIncident</t>
@@ -805,245 +826,155 @@
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
       <c r="J3" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M3" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O3" s="13"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>31</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K4" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M4" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>35</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
       <c r="J5" s="9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K5" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M5" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>39</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
       <c r="J6" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K6" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>43</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
       <c r="J7" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K7" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O7" s="13"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
@@ -1085,13 +1016,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
@@ -1136,7 +1067,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K11" s="14"/>
     </row>
@@ -1145,19 +1076,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1217,13 +1148,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4366,7 +4297,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10"/>
       <c r="K2" s="12"/>
@@ -4374,17 +4305,17 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -4399,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="11"/>
@@ -4420,19 +4351,19 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4447,7 +4378,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="11"/>
@@ -4468,19 +4399,19 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4495,7 +4426,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="11"/>
@@ -4516,19 +4447,19 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4543,7 +4474,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="11"/>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Term</t>
   </si>
@@ -75,7 +75,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>NIS2 Directive</t>
+    <t>NIS 2 Directive Article 23(3)</t>
   </si>
   <si>
     <t>accepted</t>
@@ -93,7 +93,7 @@
     <t>Report sent within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(a)</t>
+    <t>NIS 2 Directive Article 23(4)(a)</t>
   </si>
   <si>
     <t>modified</t>
@@ -111,7 +111,7 @@
     <t>Report sent within 72 hours of detection containing updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(b)</t>
+    <t>NIS 2 Directive Article 23(4)(b)</t>
   </si>
   <si>
     <t>IntermediateReport</t>
@@ -123,7 +123,7 @@
     <t>Report sent upon request which provides updates, if any, to previous information</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(c)</t>
+    <t>NIS 2 Directive Article 23(4)(c)</t>
   </si>
   <si>
     <t>ProgressReport</t>
@@ -135,7 +135,7 @@
     <t>Report sent within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(e)</t>
+    <t>NIS 2 Directive Article 23(4)(e)</t>
   </si>
   <si>
     <t>FinalReport</t>
@@ -144,10 +144,10 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severityand impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
-  </si>
-  <si>
-    <t>NIS2 Article 23 (4)(d)</t>
+    <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severity and impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
+  </si>
+  <si>
+    <t>NIS 2 Directive Article 23(4)(d)</t>
   </si>
   <si>
     <t>InitialFeedbackOnIncident</t>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing "initial feedback" and guidelines on measures that can be taken in response to a breach</t>
+  </si>
+  <si>
+    <t>NIS 2 Directive Article 23(5)</t>
   </si>
   <si>
     <t>RiskMitigationAdvice</t>
@@ -717,6 +720,7 @@
     <col customWidth="1" min="1" max="1" width="32.13"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
     <col customWidth="1" min="3" max="3" width="38.5"/>
+    <col customWidth="1" min="10" max="10" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -985,7 +989,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K8" s="12">
         <v>45431.0</v>
@@ -1016,13 +1020,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
@@ -1033,7 +1037,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K9" s="12">
         <v>45431.0</v>
@@ -1067,7 +1071,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="14"/>
     </row>
@@ -1076,19 +1080,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1148,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4297,7 +4301,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="K2" s="12"/>
@@ -4305,17 +4309,17 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -4330,7 +4334,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="11"/>
@@ -4351,19 +4355,19 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4378,7 +4382,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="11"/>
@@ -4399,19 +4403,19 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4426,7 +4430,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="11"/>
@@ -4447,19 +4451,19 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4474,7 +4478,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="11"/>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -75,7 +75,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(3)</t>
+    <t>NIS2 Article 23(3)</t>
   </si>
   <si>
     <t>accepted</t>
@@ -93,7 +93,7 @@
     <t>Report sent within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(4)(a)</t>
+    <t>NIS2 Article 23(4)(a)</t>
   </si>
   <si>
     <t>modified</t>
@@ -111,7 +111,7 @@
     <t>Report sent within 72 hours of detection containing updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(4)(b)</t>
+    <t>NIS2 Article 23(4)(b)</t>
   </si>
   <si>
     <t>IntermediateReport</t>
@@ -123,7 +123,7 @@
     <t>Report sent upon request which provides updates, if any, to previous information</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(4)(c)</t>
+    <t>NIS2 Article 23(4)(c)</t>
   </si>
   <si>
     <t>ProgressReport</t>
@@ -135,7 +135,7 @@
     <t>Report sent within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(4)(e)</t>
+    <t>NIS2 Article 23(4)(e)</t>
   </si>
   <si>
     <t>FinalReport</t>
@@ -147,7 +147,7 @@
     <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severity and impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(4)(d)</t>
+    <t>NIS2 Article 23(4)(d)</t>
   </si>
   <si>
     <t>InitialFeedbackOnIncident</t>
@@ -159,7 +159,7 @@
     <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing "initial feedback" and guidelines on measures that can be taken in response to a breach</t>
   </si>
   <si>
-    <t>NIS 2 Directive Article 23(5)</t>
+    <t>NIS2 Article 23(5)</t>
   </si>
   <si>
     <t>RiskMitigationAdvice</t>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Term</t>
   </si>
@@ -75,7 +75,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>NIS2 Directive</t>
+    <t>NIS2 Article 23(3)</t>
   </si>
   <si>
     <t>accepted</t>
@@ -93,7 +93,7 @@
     <t>Report sent within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(a)</t>
+    <t>NIS2 Article 23(4)(a)</t>
   </si>
   <si>
     <t>modified</t>
@@ -111,7 +111,7 @@
     <t>Report sent within 72 hours of detection containing updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(b)</t>
+    <t>NIS2 Article 23(4)(b)</t>
   </si>
   <si>
     <t>IntermediateReport</t>
@@ -123,7 +123,7 @@
     <t>Report sent upon request which provides updates, if any, to previous information</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(c)</t>
+    <t>NIS2 Article 23(4)(c)</t>
   </si>
   <si>
     <t>ProgressReport</t>
@@ -135,7 +135,7 @@
     <t>Report sent within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
   </si>
   <si>
-    <t>NIS2 Article 23 (4)(e)</t>
+    <t>NIS2 Article 23(4)(e)</t>
   </si>
   <si>
     <t>FinalReport</t>
@@ -144,10 +144,10 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severityand impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
-  </si>
-  <si>
-    <t>NIS2 Article 23 (4)(d)</t>
+    <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severity and impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(4)(d)</t>
   </si>
   <si>
     <t>InitialFeedbackOnIncident</t>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing "initial feedback" and guidelines on measures that can be taken in response to a breach</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(5)</t>
   </si>
   <si>
     <t>RiskMitigationAdvice</t>
@@ -717,6 +720,7 @@
     <col customWidth="1" min="1" max="1" width="32.13"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
     <col customWidth="1" min="3" max="3" width="38.5"/>
+    <col customWidth="1" min="10" max="10" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -985,7 +989,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K8" s="12">
         <v>45431.0</v>
@@ -1016,13 +1020,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
@@ -1033,7 +1037,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K9" s="12">
         <v>45431.0</v>
@@ -1067,7 +1071,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="14"/>
     </row>
@@ -1076,19 +1080,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1148,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4297,7 +4301,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="K2" s="12"/>
@@ -4305,17 +4309,17 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -4330,7 +4334,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="11"/>
@@ -4351,19 +4355,19 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4378,7 +4382,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="11"/>
@@ -4399,19 +4403,19 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4426,7 +4430,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="11"/>
@@ -4447,19 +4451,19 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4474,7 +4478,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="11"/>

--- a/code/vocab_csv/eu-nis2.xlsx
+++ b/code/vocab_csv/eu-nis2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t>Term</t>
   </si>
@@ -75,7 +75,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>NIS2 Directive</t>
+    <t>NIS2 Article 23(3)</t>
   </si>
   <si>
     <t>accepted</t>
@@ -90,7 +90,16 @@
     <t>Early Warning Report</t>
   </si>
   <si>
-    <t>within 24 hours of detection containing cause of the  incident and whether it was unlawful or malicious and whether there is  cross-border impact</t>
+    <t>Report sent within 24 hours of detection containing cause of the incident and whether it was unlawful or malicious and whether there is cross-border impact</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(4)(a)</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Arthit Suriyawongkul</t>
   </si>
   <si>
     <t>IncidentAssessmentReport</t>
@@ -99,7 +108,10 @@
     <t>Incident Assessment Report</t>
   </si>
   <si>
-    <t>within 72 hours of detection, which contains  updates on the earlier information as well as initial assessment of  severity and impact of the incident as well as any 'indicators of  compromise'</t>
+    <t>Report sent within 72 hours of detection containing updates on the earlier information as well as initial assessment of severity and impact of the incident as well as any 'indicators of compromise'</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(4)(b)</t>
   </si>
   <si>
     <t>IntermediateReport</t>
@@ -108,7 +120,10 @@
     <t>Intermediate Report</t>
   </si>
   <si>
-    <t>upon request - which provides updates, if any,  to previous information</t>
+    <t>Report sent upon request which provides updates, if any, to previous information</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(4)(c)</t>
   </si>
   <si>
     <t>ProgressReport</t>
@@ -117,7 +132,10 @@
     <t>Progress Report</t>
   </si>
   <si>
-    <t>within 1 month of detection if the  incident handling has not been completed by then, with updates to  previous information</t>
+    <t>Report sent within 1 month of detection if the incident handling has not been completed by then, with updates to previous information</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(4)(e)</t>
   </si>
   <si>
     <t>FinalReport</t>
@@ -126,7 +144,10 @@
     <t>Final Report</t>
   </si>
   <si>
-    <t>within 1 month of incident handling i.e.  completing the incident recovery and containing the  applied/ongoing measures, 'detailed description' - not sure what this  means, and threat type / root cause - which is covered with threat and  vulnerability concepts</t>
+    <t>Report sent within 1 month of incident handling i.e. completing the incident recovery and containing the applied/ongoing measures, and containing a 'detailed description' of the incident including its severity and impact, threat type and root cause that are likely to have triggered the incident, applied and ongoing measures, and - if applicable - cross-border impacts</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(4)(d)</t>
   </si>
   <si>
     <t>InitialFeedbackOnIncident</t>
@@ -135,7 +156,10 @@
     <t>Initial Feedback on Incident</t>
   </si>
   <si>
-    <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing  "initial feedback" and guidelines on measures that can be taken in  response to a breach</t>
+    <t>Notification from authority to organisation (upon request, within 24 hours or early warning) containing "initial feedback" and guidelines on measures that can be taken in response to a breach</t>
+  </si>
+  <si>
+    <t>NIS2 Article 23(5)</t>
   </si>
   <si>
     <t>RiskMitigationAdvice</t>
@@ -696,6 +720,7 @@
     <col customWidth="1" min="1" max="1" width="32.13"/>
     <col customWidth="1" min="2" max="2" width="20.88"/>
     <col customWidth="1" min="3" max="3" width="38.5"/>
+    <col customWidth="1" min="10" max="10" width="28.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -805,245 +830,155 @@
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
       <c r="J3" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M3" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O3" s="13"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>31</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
       <c r="J4" s="9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K4" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M4" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>35</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
       <c r="J5" s="9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K5" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M5" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>39</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
       <c r="J6" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K6" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O6" s="13"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>43</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
       <c r="J7" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="K7" s="12">
         <v>45431.0</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="14">
+        <v>45874.0</v>
+      </c>
       <c r="M7" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O7" s="13"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9" t="s">
@@ -1054,7 +989,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K8" s="12">
         <v>45431.0</v>
@@ -1085,13 +1020,13 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9" t="s">
@@ -1102,7 +1037,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="K9" s="12">
         <v>45431.0</v>
@@ -1136,7 +1071,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K11" s="14"/>
     </row>
@@ -1145,19 +1080,19 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1217,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4366,7 +4301,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="K2" s="12"/>
@@ -4374,17 +4309,17 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -4399,7 +4334,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="11"/>
@@ -4420,19 +4355,19 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4447,7 +4382,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="11"/>
@@ -4468,19 +4403,19 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -4495,7 +4430,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="11"/>
@@ -4516,19 +4451,19 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4543,7 +4478,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="11"/>
